--- a/src/main/resources/poiOoxml/poi4.xlsx
+++ b/src/main/resources/poiOoxml/poi4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\gitCode\jarVuln\src\main\resources\poiOoxml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FBBEA-F028-4DA9-B37A-7426DBDCFC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="17175" windowHeight="9465"/>
+    <workbookView xWindow="-26028" yWindow="-1020" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,27 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ro</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>gs</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>gvvv</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>aa</t>
   </si>
   <si>
     <t>jerhwkj</t>
@@ -45,34 +33,27 @@
     <t>lkcnkln</t>
   </si>
   <si>
-    <t>msdnakjd</t>
-  </si>
-  <si>
-    <t>nmne,</t>
-  </si>
-  <si>
-    <t>ernemn</t>
-  </si>
-  <si>
-    <t>acoco</t>
-  </si>
-  <si>
-    <t>cme</t>
-  </si>
-  <si>
-    <t>ass</t>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -101,10 +82,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -133,54 +122,24 @@
 </file>
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
-<singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="1" r="A1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="NOME">
+<singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="xr xr3 xr6">
+  <singleXmlCell id="1" xr6:uid="{00000000-000C-0000-FFFF-FFFF00000000}" r="A1" connectionId="0">
+    <xmlCellPr id="1" xr6:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="NOME">
       <xmlPr mapId="1" xpath="/CORSO/NOME" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="2" r="B1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="DOCENTE">
+  <singleXmlCell id="2" xr6:uid="{00000000-000C-0000-FFFF-FFFF01000000}" r="B1" connectionId="0">
+    <xmlCellPr id="1" xr6:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="DOCENTE">
       <xmlPr mapId="1" xpath="/CORSO/DOCENTE" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="3" r="C1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="TUTOR">
-      <xmlPr mapId="1" xpath="/CORSO/TUTOR" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="4" r="D1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="CDL">
-      <xmlPr mapId="1" xpath="/CORSO/CDL" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="5" r="E1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="DURATA">
-      <xmlPr mapId="1" xpath="/CORSO/DURATA" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="6" r="F1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="ARGOMENTO">
-      <xmlPr mapId="1" xpath="/CORSO/ARGOMENTO" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="7" r="G1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="PROGETTO">
-      <xmlPr mapId="1" xpath="/CORSO/PROGETTO" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
-  <singleXmlCell id="8" r="H1" connectionId="0">
-    <xmlCellPr id="1" uniqueName="CREDITI">
-      <xmlPr mapId="1" xpath="/CORSO/CREDITI" xmlDataType="string"/>
-    </xmlCellPr>
-  </singleXmlCell>
 </singleXmlCells>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -252,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,9 +246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,101 +422,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>21312</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>